--- a/01_Linear/Quiz_minimize_key.xlsx
+++ b/01_Linear/Quiz_minimize_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA2166-1717-6C47-BE88-4AEA63A33AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2359161E-4075-DD49-BCA1-2774E68B8F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30940" windowHeight="19860" activeTab="2" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31280" windowHeight="20540" activeTab="3" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FB4494-BB38-7944-8CA2-6884F9F40CCC}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1239,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1E5609-895C-CB43-A405-EBDFB4AB946B}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="E4" s="8">
         <f>SUMPRODUCT(B4:D4,$B$9:$D$9)</f>
-        <v>141.42857142857142</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>43</v>
@@ -1316,13 +1316,13 @@
       </c>
       <c r="E6" s="8">
         <f>SUMPRODUCT(B6:D6,$B$9:$D$9)</f>
-        <v>125.71428571428571</v>
+        <v>114.28571428571429</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="5">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>53</v>
@@ -1343,13 +1343,13 @@
       </c>
       <c r="E7" s="8">
         <f>SUMPRODUCT(B7:D7,$B$9:$D$9)</f>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="5">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>54</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="6">
-        <v>15.714285714285714</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -1401,7 +1401,7 @@
       <c r="A13" s="9"/>
       <c r="B13" s="10">
         <f>C9</f>
-        <v>15.714285714285714</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>13</v>
